--- a/biology/Zoologie/Epichirostenotes/Epichirostenotes.xlsx
+++ b/biology/Zoologie/Epichirostenotes/Epichirostenotes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Epichirostenotes curriei
 Epichirostenotes est un genre éteint de dinosaures à plumes de la famille des Caenagnathidae. Il a vécu au Canada, dans le sud-ouest de la province d'Alberta à la fin du Crétacé supérieur. Le genre est encore mal connu car ses restes fossiles sont peu nombreux et fragmentaires.
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de genre vient du grec ancien « épi », « au-dessus, à la surface de », de « cheir »,  « main », et de « stenotes », « étroitesse ». L'ensemble témoigne de la finesse de la main d'Epichirostenotes.
 </t>
@@ -544,9 +558,11 @@
           <t>Datation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype (ROM 43250) est constitué de fossiles retrouvés dans une strate de grès continentaux de la partie inférieure de la formation de Horseshoe Canyon. Cette couche a été datée en magnétostratigraphie à 72 Ma (millions d'années)[1], soit à la limite entre les étages du Campanien et du Maastrichtien.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype (ROM 43250) est constitué de fossiles retrouvés dans une strate de grès continentaux de la partie inférieure de la formation de Horseshoe Canyon. Cette couche a été datée en magnétostratigraphie à 72 Ma (millions d'années), soit à la limite entre les étages du Campanien et du Maastrichtien.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les restes fossiles d'Epichirostenotes curriei sont peu nombreux, phalanges, métacarpes, os pubien, ils sont de plus mal conservés. La longueur totale de l'animal est estimée à 2 mètres.
 </t>
@@ -606,9 +624,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans leur étude phylogénique de 2016, G. Funston et P. J. Currie placent Epichirostenotes currie en groupe frère du célèbre Anzu wyliei, lui aussi nord-américain[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans leur étude phylogénique de 2016, G. Funston et P. J. Currie placent Epichirostenotes currie en groupe frère du célèbre Anzu wyliei, lui aussi nord-américain.
 </t>
         </is>
       </c>
